--- a/output/SANTANDER_24986084000142.xlsx
+++ b/output/SANTANDER_24986084000142.xlsx
@@ -889,10 +889,10 @@
         <v>44165</v>
       </c>
       <c r="B46">
-        <v>0.21210594</v>
+        <v>0.2152546</v>
       </c>
       <c r="C46">
-        <v>0.01414266513595819</v>
+        <v>0.01677708044457971</v>
       </c>
     </row>
   </sheetData>

--- a/output/SANTANDER_24986084000142.xlsx
+++ b/output/SANTANDER_24986084000142.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SANTANDER STAR LONG E SHORT DIRECIONAL MULTIMERCADO FIC FI</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
@@ -411,488 +405,356 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42855</v>
       </c>
       <c r="B3">
         <v>0.01087104999999999</v>
       </c>
-      <c r="C3">
-        <v>0.01087104999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42886</v>
       </c>
       <c r="B4">
-        <v>0.008402739999999964</v>
-      </c>
-      <c r="C4">
         <v>-0.002441765445751032</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42916</v>
       </c>
       <c r="B5">
-        <v>0.0135422300000001</v>
-      </c>
-      <c r="C5">
         <v>0.005096664057061329</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42947</v>
       </c>
       <c r="B6">
-        <v>0.02181618000000007</v>
-      </c>
-      <c r="C6">
         <v>0.008163399368174229</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42978</v>
       </c>
       <c r="B7">
-        <v>0.03077887000000001</v>
-      </c>
-      <c r="C7">
         <v>0.008771333019995664</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43008</v>
       </c>
       <c r="B8">
-        <v>0.05413186000000003</v>
-      </c>
-      <c r="C8">
         <v>0.02265567395652957</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43039</v>
       </c>
       <c r="B9">
-        <v>0.05860141000000008</v>
-      </c>
-      <c r="C9">
         <v>0.004240029326122441</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43069</v>
       </c>
       <c r="B10">
-        <v>0.06237691000000001</v>
-      </c>
-      <c r="C10">
         <v>0.003566498178006361</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43100</v>
       </c>
       <c r="B11">
-        <v>0.06700690999999992</v>
-      </c>
-      <c r="C11">
         <v>0.004358151948163025</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43131</v>
       </c>
       <c r="B12">
-        <v>0.08482652999999996</v>
-      </c>
-      <c r="C12">
         <v>0.01670056663456854</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43159</v>
       </c>
       <c r="B13">
-        <v>0.09294592000000002</v>
-      </c>
-      <c r="C13">
         <v>0.007484505379860229</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43190</v>
       </c>
       <c r="B14">
-        <v>0.1017652200000001</v>
-      </c>
-      <c r="C14">
         <v>0.008069292211640322</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43220</v>
       </c>
       <c r="B15">
-        <v>0.10988102</v>
-      </c>
-      <c r="C15">
         <v>0.007366179157479502</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43251</v>
       </c>
       <c r="B16">
-        <v>0.11026318</v>
-      </c>
-      <c r="C16">
         <v>0.0003443251962269578</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43281</v>
       </c>
       <c r="B17">
-        <v>0.1151299699999999</v>
-      </c>
-      <c r="C17">
         <v>0.004383456181983769</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43312</v>
       </c>
       <c r="B18">
-        <v>0.1261743200000001</v>
-      </c>
-      <c r="C18">
         <v>0.009904092166046041</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43343</v>
       </c>
       <c r="B19">
-        <v>0.13151723</v>
-      </c>
-      <c r="C19">
         <v>0.004744301042133525</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43373</v>
       </c>
       <c r="B20">
-        <v>0.1372508699999999</v>
-      </c>
-      <c r="C20">
         <v>0.005067214044986112</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43404</v>
       </c>
       <c r="B21">
-        <v>0.1459034400000001</v>
-      </c>
-      <c r="C21">
         <v>0.007608321284467534</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43434</v>
       </c>
       <c r="B22">
-        <v>0.1538199099999999</v>
-      </c>
-      <c r="C22">
         <v>0.006908496583272195</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43465</v>
       </c>
       <c r="B23">
-        <v>0.1570202200000002</v>
-      </c>
-      <c r="C23">
         <v>0.002773665086088117</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43496</v>
       </c>
       <c r="B24">
-        <v>0.16770964</v>
-      </c>
-      <c r="C24">
         <v>0.009238749518136968</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43524</v>
       </c>
       <c r="B25">
-        <v>0.17317955</v>
-      </c>
-      <c r="C25">
         <v>0.004684306622663392</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43555</v>
       </c>
       <c r="B26">
-        <v>0.1767927999999999</v>
-      </c>
-      <c r="C26">
         <v>0.003079878097090871</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43585</v>
       </c>
       <c r="B27">
-        <v>0.18124363</v>
-      </c>
-      <c r="C27">
         <v>0.003782169639379385</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43616</v>
       </c>
       <c r="B28">
-        <v>0.1868061000000001</v>
-      </c>
-      <c r="C28">
         <v>0.004708994705859393</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43646</v>
       </c>
       <c r="B29">
-        <v>0.1925142799999999</v>
-      </c>
-      <c r="C29">
         <v>0.004809698905322346</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43677</v>
       </c>
       <c r="B30">
-        <v>0.2013035999999999</v>
-      </c>
-      <c r="C30">
         <v>0.007370410692272733</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43708</v>
       </c>
       <c r="B31">
-        <v>0.20794376</v>
-      </c>
-      <c r="C31">
         <v>0.005527462000446848</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43738</v>
       </c>
       <c r="B32">
-        <v>0.2072330900000001</v>
-      </c>
-      <c r="C32">
         <v>-0.0005883303706125664</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43769</v>
       </c>
       <c r="B33">
-        <v>0.2089909400000001</v>
-      </c>
-      <c r="C33">
         <v>0.001456098258539207</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43799</v>
       </c>
       <c r="B34">
-        <v>0.2141871099999999</v>
-      </c>
-      <c r="C34">
         <v>0.004297939569340326</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43830</v>
       </c>
       <c r="B35">
-        <v>0.2217664699999999</v>
-      </c>
-      <c r="C35">
         <v>0.006242332781806637</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43861</v>
       </c>
       <c r="B36">
-        <v>0.21676878</v>
-      </c>
-      <c r="C36">
         <v>-0.004090544406575414</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
       <c r="B37">
-        <v>0.2056666699999998</v>
-      </c>
-      <c r="C37">
         <v>-0.009124256130240371</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43921</v>
       </c>
       <c r="B38">
-        <v>0.1874636700000001</v>
-      </c>
-      <c r="C38">
         <v>-0.0150978711222064</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43951</v>
       </c>
       <c r="B39">
-        <v>0.1882708100000001</v>
-      </c>
-      <c r="C39">
         <v>0.000679717637172006</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43982</v>
       </c>
       <c r="B40">
-        <v>0.19111379</v>
-      </c>
-      <c r="C40">
         <v>0.002392535418756836</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44012</v>
       </c>
       <c r="B41">
-        <v>0.19528692</v>
-      </c>
-      <c r="C41">
         <v>0.003503552754603012</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44043</v>
       </c>
       <c r="B42">
-        <v>0.2104314</v>
-      </c>
-      <c r="C42">
         <v>0.01267016290950451</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44074</v>
       </c>
       <c r="B43">
-        <v>0.2089572900000001</v>
-      </c>
-      <c r="C43">
         <v>-0.00121783853260915</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44104</v>
       </c>
       <c r="B44">
-        <v>0.198609</v>
-      </c>
-      <c r="C44">
         <v>-0.008559682038064453</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44135</v>
       </c>
       <c r="B45">
-        <v>0.1952025900000001</v>
-      </c>
-      <c r="C45">
         <v>-0.002841969316098925</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44165</v>
       </c>
       <c r="B46">
-        <v>0.2152546</v>
-      </c>
-      <c r="C46">
-        <v>0.01677708044457971</v>
+        <v>0.01285416391207783</v>
       </c>
     </row>
   </sheetData>
